--- a/optimize_hyperparam/opt_results/opt_res_ml_26102023/CatBoostModel/261023_DF_opt_hyperparam_CatBoostModel_2-nstep.xlsx
+++ b/optimize_hyperparam/opt_results/opt_res_ml_26102023/CatBoostModel/261023_DF_opt_hyperparam_CatBoostModel_2-nstep.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.740961194873656</v>
+        <v>4.195948606702415</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -539,22 +539,22 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.01023795509732104</v>
+        <v>0.09044083514841986</v>
       </c>
       <c r="J2" t="n">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>61.23647285781885</v>
+        <v>22.41245587789681</v>
       </c>
       <c r="M2" t="n">
-        <v>1.403626881185519</v>
+        <v>5.772849981461561</v>
       </c>
       <c r="N2" t="n">
-        <v>7.069823608800093</v>
+        <v>5.21054156067202</v>
       </c>
     </row>
   </sheetData>

--- a/optimize_hyperparam/opt_results/opt_res_ml_26102023/CatBoostModel/261023_DF_opt_hyperparam_CatBoostModel_2-nstep.xlsx
+++ b/optimize_hyperparam/opt_results/opt_res_ml_26102023/CatBoostModel/261023_DF_opt_hyperparam_CatBoostModel_2-nstep.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bình Phước</t>
+          <t>An Giang</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.60759396060654</v>
+        <v>6.205182005886945</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0490620109554078</v>
+        <v>0.02079044131339164</v>
       </c>
       <c r="I2" t="n">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>711</v>
+        <v>374</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -571,22 +571,22 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>58.03132383509082</v>
+        <v>69.74415014443922</v>
       </c>
       <c r="O2" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="P2" t="n">
-        <v>6.481026309210422</v>
+        <v>7.434624150189949</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.852352945102115</v>
+        <v>1.086178495391723</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>BR Vũng Tàu</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.627738250449308</v>
+        <v>15.84196144865881</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -612,16 +612,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03807215464855685</v>
+        <v>0.07912293930764022</v>
       </c>
       <c r="I3" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>817</v>
+        <v>181</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -630,83 +630,3359 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>IsNone</t>
+          <t>0.1,0.5,0.9</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>59.84722345410109</v>
+        <v>58.99478619856831</v>
       </c>
       <c r="O3" t="n">
-        <v>244</v>
+        <v>162</v>
       </c>
       <c r="P3" t="n">
-        <v>6.221782471327662</v>
+        <v>6.532342697382315</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.648146072379975</v>
+        <v>7.764462982884456</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Bình Phước</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15.82797645873867</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.07778041696602071</v>
+      </c>
+      <c r="I4" t="n">
+        <v>124</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>588</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>99.18065611039729</v>
+      </c>
+      <c r="O4" t="n">
+        <v>51</v>
+      </c>
+      <c r="P4" t="n">
+        <v>9.936306365154786</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7.592677012962232</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bình Thuận</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4.378580546507307</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.08133398654142376</v>
+      </c>
+      <c r="I5" t="n">
+        <v>145</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>849</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>64.89418203322316</v>
+      </c>
+      <c r="O5" t="n">
+        <v>247</v>
+      </c>
+      <c r="P5" t="n">
+        <v>6.881521171033078</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.960274746480781</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bình Định</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5.363983565472699</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.01625065816356708</v>
+      </c>
+      <c r="I6" t="n">
+        <v>66</v>
+      </c>
+      <c r="J6" t="n">
+        <v>14</v>
+      </c>
+      <c r="K6" t="n">
+        <v>263</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>47.69527579777969</v>
+      </c>
+      <c r="O6" t="n">
+        <v>134</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.465255565914713</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.236350534162465</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bạc Liêu</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5.431717544254802</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.09877883936490986</v>
+      </c>
+      <c r="I7" t="n">
+        <v>68</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>78</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>27.72683919855102</v>
+      </c>
+      <c r="O7" t="n">
+        <v>48</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8.530039647469133</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5.154501920514319</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bắc Kạn</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.371690503767681e-06</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0219093115496834</v>
+      </c>
+      <c r="I8" t="n">
+        <v>142</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>717</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>23.66476930573819</v>
+      </c>
+      <c r="O8" t="n">
+        <v>81</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.967980636280476</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4.079849611301938</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bắc Giang</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2127130741267099</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0187730799147141</v>
+      </c>
+      <c r="I9" t="n">
+        <v>69</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>990</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>73.84722123010705</v>
+      </c>
+      <c r="O9" t="n">
+        <v>188</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.1509230355583153</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.310643647030596</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cao Bằng</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.005370830333600803</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.01363383209209185</v>
+      </c>
+      <c r="I10" t="n">
+        <v>142</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>590</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>51.97478009691014</v>
+      </c>
+      <c r="O10" t="n">
+        <v>30</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.915666714282549</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9.478237879455357</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cà Mau</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>18.78129693183862</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01181642216069835</v>
+      </c>
+      <c r="I11" t="n">
+        <v>138</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>721</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>41.4720155678399</v>
+      </c>
+      <c r="O11" t="n">
+        <v>161</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.83639299280058</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7.112182705801501</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cần Thơ</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4.513249423697102</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.004106155321809307</v>
+      </c>
+      <c r="I12" t="n">
+        <v>51</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>571</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>61.09263310764061</v>
+      </c>
+      <c r="O12" t="n">
+        <v>245</v>
+      </c>
+      <c r="P12" t="n">
+        <v>8.43325013890715</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.347043662285601</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Gia Lai</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4.52534985167755</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.08959518966071556</v>
+      </c>
+      <c r="I13" t="n">
+        <v>148</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>776</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>50.82926960437777</v>
+      </c>
+      <c r="O13" t="n">
+        <v>131</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.681864498307942</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4.189941261303137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Hà Giang</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>8.57106759148306e-07</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.01322647990852063</v>
+      </c>
+      <c r="I14" t="n">
+        <v>153</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>526</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>82.04746996164869</v>
+      </c>
+      <c r="O14" t="n">
+        <v>65</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.203565462124</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.386974923270385</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2.763915405332585</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0178315127379573</v>
+      </c>
+      <c r="I15" t="n">
+        <v>54</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>233</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>77.04912722081502</v>
+      </c>
+      <c r="O15" t="n">
+        <v>182</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.8310428216173635</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5.786974101261153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hà Tĩnh</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4006507219724533</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.009244672702084632</v>
+      </c>
+      <c r="I16" t="n">
+        <v>180</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>290</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>56.55022445493785</v>
+      </c>
+      <c r="O16" t="n">
+        <v>122</v>
+      </c>
+      <c r="P16" t="n">
+        <v>7.009232473770394</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.1093760007521297</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hòa Bình</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02450191649832291</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.001073099707265155</v>
+      </c>
+      <c r="I17" t="n">
+        <v>193</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>374</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>99.40666416674857</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.380610260726367</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>6.021243274007669</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hưng Yên</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01940649211978013</v>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.01360067442381627</v>
+      </c>
+      <c r="I18" t="n">
+        <v>147</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>773</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>66.13503003650199</v>
+      </c>
+      <c r="O18" t="n">
+        <v>12</v>
+      </c>
+      <c r="P18" t="n">
+        <v>9.841769628440693</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>9.025505472187291</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hải Dương</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01922046005688189</v>
+      </c>
+      <c r="D19" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.04342414927210954</v>
+      </c>
+      <c r="I19" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>731</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>79.39261890925115</v>
+      </c>
+      <c r="O19" t="n">
+        <v>34</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.1097225132343559</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.8429331226708883</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hải Phòng</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6323574689228967</v>
+      </c>
+      <c r="D20" t="n">
+        <v>50</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.001010993833100535</v>
+      </c>
+      <c r="I20" t="n">
+        <v>61</v>
+      </c>
+      <c r="J20" t="n">
+        <v>12</v>
+      </c>
+      <c r="K20" t="n">
+        <v>176</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>1.550520771310055</v>
+      </c>
+      <c r="O20" t="n">
+        <v>245</v>
+      </c>
+      <c r="P20" t="n">
+        <v>6.655978020074476</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.852377528198289</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Khánh Hòa</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>16.43963174799604</v>
+      </c>
+      <c r="D21" t="n">
+        <v>50</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.01488943856400159</v>
+      </c>
+      <c r="I21" t="n">
+        <v>130</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>546</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>13.35427228779399</v>
+      </c>
+      <c r="O21" t="n">
+        <v>158</v>
+      </c>
+      <c r="P21" t="n">
+        <v>6.869354472825679</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>6.861169623528602</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kiên Giang</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5.627965877786824</v>
+      </c>
+      <c r="D22" t="n">
+        <v>50</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.05881817428907748</v>
+      </c>
+      <c r="I22" t="n">
+        <v>107</v>
+      </c>
+      <c r="J22" t="n">
+        <v>9</v>
+      </c>
+      <c r="K22" t="n">
+        <v>993</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>9.780415322284707</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>8.237223600802444</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>9.374899904246895</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Kon Tum</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.671726679625938</v>
+      </c>
+      <c r="D23" t="n">
+        <v>50</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.02945632595117388</v>
+      </c>
+      <c r="I23" t="n">
+        <v>200</v>
+      </c>
+      <c r="J23" t="n">
+        <v>15</v>
+      </c>
+      <c r="K23" t="n">
+        <v>883</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>36.0286895148359</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>7.876011581268974</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.3231652518736565</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Lai Châu</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>9.45038985143461e-07</v>
+      </c>
+      <c r="D24" t="n">
+        <v>50</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.02221709409777673</v>
+      </c>
+      <c r="I24" t="n">
+        <v>109</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>97</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>10.58649018591719</v>
+      </c>
+      <c r="O24" t="n">
+        <v>34</v>
+      </c>
+      <c r="P24" t="n">
+        <v>7.380414976114655</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>6.79428233797353</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Long An</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6.216576223917116</v>
+      </c>
+      <c r="D25" t="n">
+        <v>50</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.09206836658888888</v>
+      </c>
+      <c r="I25" t="n">
+        <v>134</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>840</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>42.32809494569036</v>
+      </c>
+      <c r="O25" t="n">
+        <v>136</v>
+      </c>
+      <c r="P25" t="n">
+        <v>9.146797648762799</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>9.299656602695343</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Lào Cai</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.004300508864566756</v>
+      </c>
+      <c r="D26" t="n">
+        <v>50</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.06754150883039432</v>
+      </c>
+      <c r="I26" t="n">
+        <v>105</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>725</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>28.16440129001899</v>
+      </c>
+      <c r="O26" t="n">
+        <v>134</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.161289324066332</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.167956084221366</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Lâm Đồng</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5104039214875348</v>
+      </c>
+      <c r="D27" t="n">
+        <v>50</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.001131194615779695</v>
+      </c>
+      <c r="I27" t="n">
+        <v>60</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>991</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>66.72273736765079</v>
+      </c>
+      <c r="O27" t="n">
+        <v>213</v>
+      </c>
+      <c r="P27" t="n">
+        <v>9.540626973733783</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.827959322898422</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Lạng Sơn</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0149557834831291</v>
+      </c>
+      <c r="D28" t="n">
+        <v>50</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.01880051306113293</v>
+      </c>
+      <c r="I28" t="n">
+        <v>103</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>303</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>29.62905072577021</v>
+      </c>
+      <c r="O28" t="n">
+        <v>164</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.442837731746693</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.091775612437668</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Nam Định</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.468239775170208</v>
+      </c>
+      <c r="D29" t="n">
+        <v>50</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0351547386227269</v>
+      </c>
+      <c r="I29" t="n">
+        <v>88</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>100</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>82.44965226366084</v>
+      </c>
+      <c r="O29" t="n">
+        <v>134</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.293465578756265</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.850153015211047</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Nghệ An</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2383057497497948</v>
+      </c>
+      <c r="D30" t="n">
+        <v>50</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.01794782554074544</v>
+      </c>
+      <c r="I30" t="n">
+        <v>97</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>978</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>2.012241423697624</v>
+      </c>
+      <c r="O30" t="n">
+        <v>138</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5.225022558290759</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>8.144131413827388</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ninh Bình</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.04841894385587703</v>
+      </c>
+      <c r="D31" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01351464970368151</v>
+      </c>
+      <c r="I31" t="n">
+        <v>64</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>259</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>83.31664523354385</v>
+      </c>
+      <c r="O31" t="n">
+        <v>109</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5.805749161402013</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>9.225958164582533</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ninh Thuận</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>13.87302270912937</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.001104809008836467</v>
+      </c>
+      <c r="I32" t="n">
+        <v>130</v>
+      </c>
+      <c r="J32" t="n">
+        <v>12</v>
+      </c>
+      <c r="K32" t="n">
+        <v>436</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>5.525780476600765</v>
+      </c>
+      <c r="O32" t="n">
+        <v>54</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.730991043916783</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>7.674748739927479</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Phú Thọ</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.04326565273892855</v>
+      </c>
+      <c r="D33" t="n">
+        <v>50</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.002102359847388388</v>
+      </c>
+      <c r="I33" t="n">
+        <v>100</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>642</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>24.18696807790316</v>
+      </c>
+      <c r="O33" t="n">
+        <v>255</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.79180995810961</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>7.276877952356148</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Phú Yên</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>11.02793284749638</v>
+      </c>
+      <c r="D34" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.07692283235882967</v>
+      </c>
+      <c r="I34" t="n">
+        <v>68</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>812</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>34.88716451828051</v>
+      </c>
+      <c r="O34" t="n">
+        <v>79</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.720275364395907</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5.738473616032323</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Quảng Bình</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1.53473844758947</v>
+      </c>
+      <c r="D35" t="n">
+        <v>50</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.01179646076779357</v>
+      </c>
+      <c r="I35" t="n">
+        <v>105</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>999</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>76.12808022631739</v>
+      </c>
+      <c r="O35" t="n">
+        <v>79</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4.654995310354034</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.835708263266813</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Quảng Nam</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3.661438666394155</v>
+      </c>
+      <c r="D36" t="n">
+        <v>50</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.008935514604174393</v>
+      </c>
+      <c r="I36" t="n">
+        <v>56</v>
+      </c>
+      <c r="J36" t="n">
+        <v>8</v>
+      </c>
+      <c r="K36" t="n">
+        <v>296</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>5.588637405576176</v>
+      </c>
+      <c r="O36" t="n">
+        <v>5</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.1463672727242924</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5.053711050595489</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Quảng Ngãi</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3.681818644619906</v>
+      </c>
+      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.007167225180041606</v>
+      </c>
+      <c r="I37" t="n">
+        <v>78</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>404</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>45.44186689779904</v>
+      </c>
+      <c r="O37" t="n">
+        <v>224</v>
+      </c>
+      <c r="P37" t="n">
+        <v>9.556510889266812</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3.009670562950144</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Quảng Ninh</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CatBoost</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6459510152302727</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-2,-3,-4</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.003141373456743541</v>
-      </c>
-      <c r="I4" t="n">
-        <v>188</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>350</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>quantile</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5889693496702794</v>
+      </c>
+      <c r="D38" t="n">
+        <v>50</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.006518565728327905</v>
+      </c>
+      <c r="I38" t="n">
+        <v>68</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7</v>
+      </c>
+      <c r="K38" t="n">
+        <v>35</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>13.30114882179369</v>
+      </c>
+      <c r="O38" t="n">
+        <v>83</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.1382638112929739</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>8.284765132691819</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Quảng Trị</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.739965981470438</v>
+      </c>
+      <c r="D39" t="n">
+        <v>50</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0342988011793337</v>
+      </c>
+      <c r="I39" t="n">
+        <v>71</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>492</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>95.49035173210295</v>
+      </c>
+      <c r="O39" t="n">
+        <v>52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4.881731599831409</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.225555467023994</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sóc Trăng</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>9.054456083721497</v>
+      </c>
+      <c r="D40" t="n">
+        <v>50</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.02665277508977324</v>
+      </c>
+      <c r="I40" t="n">
+        <v>127</v>
+      </c>
+      <c r="J40" t="n">
+        <v>13</v>
+      </c>
+      <c r="K40" t="n">
+        <v>794</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>26.16118970283446</v>
+      </c>
+      <c r="O40" t="n">
+        <v>92</v>
+      </c>
+      <c r="P40" t="n">
+        <v>6.88106054934312</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>8.322252912074488</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sơn La</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5.182296489117594e-07</v>
+      </c>
+      <c r="D41" t="n">
+        <v>50</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.01710815375016524</v>
+      </c>
+      <c r="I41" t="n">
+        <v>114</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>392</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>92.65666097978223</v>
+      </c>
+      <c r="O41" t="n">
+        <v>176</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4.531933916635686</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>7.010345436772853</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TT Huế</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2.483290400020464</v>
+      </c>
+      <c r="D42" t="n">
+        <v>50</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.001077520139273199</v>
+      </c>
+      <c r="I42" t="n">
+        <v>59</v>
+      </c>
+      <c r="J42" t="n">
+        <v>10</v>
+      </c>
+      <c r="K42" t="n">
+        <v>97</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>99.3791963204545</v>
+      </c>
+      <c r="O42" t="n">
+        <v>121</v>
+      </c>
+      <c r="P42" t="n">
+        <v>9.476398048015952</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.379524243503003</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Thanh Hóa</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1573877611238247</v>
+      </c>
+      <c r="D43" t="n">
+        <v>50</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.09778209246192304</v>
+      </c>
+      <c r="I43" t="n">
+        <v>67</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>562</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>24.55236257120186</v>
+      </c>
+      <c r="O43" t="n">
+        <v>101</v>
+      </c>
+      <c r="P43" t="n">
+        <v>8.33171714908957</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5.745719427452697</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Thái Bình</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.2444525244500592</v>
+      </c>
+      <c r="D44" t="n">
+        <v>50</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.02420724887647184</v>
+      </c>
+      <c r="I44" t="n">
+        <v>94</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11</v>
+      </c>
+      <c r="K44" t="n">
+        <v>700</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>63.51785628643991</v>
+      </c>
+      <c r="O44" t="n">
+        <v>59</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5.628809767345883</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.349602594530785</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Thái Nguyên</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01368534956484576</v>
+      </c>
+      <c r="D45" t="n">
+        <v>50</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.008004706719279657</v>
+      </c>
+      <c r="I45" t="n">
+        <v>151</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3</v>
+      </c>
+      <c r="K45" t="n">
+        <v>992</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>46.81055793105539</v>
+      </c>
+      <c r="O45" t="n">
+        <v>171</v>
+      </c>
+      <c r="P45" t="n">
+        <v>6.869111139593422</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>7.126872739904547</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Tiền Giang</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>8.171058208221249</v>
+      </c>
+      <c r="D46" t="n">
+        <v>50</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.08761854488236581</v>
+      </c>
+      <c r="I46" t="n">
+        <v>107</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>505</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>0.1,0.5,0.9</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>90.1308532370816</v>
-      </c>
-      <c r="O4" t="n">
-        <v>134</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7.050543228890025</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7.452794673104369</v>
+      <c r="N46" t="n">
+        <v>85.95850368321418</v>
+      </c>
+      <c r="O46" t="n">
+        <v>147</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3.288444057010749</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4.62096284145851</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Trà Vinh</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>3.576445247767883</v>
+      </c>
+      <c r="D47" t="n">
+        <v>50</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.04836611471651689</v>
+      </c>
+      <c r="I47" t="n">
+        <v>102</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>56</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>13.72566660823738</v>
+      </c>
+      <c r="O47" t="n">
+        <v>246</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4.631075897416897</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.3198555705537398</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tuyên Quang</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3.405414417514804e-06</v>
+      </c>
+      <c r="D48" t="n">
+        <v>50</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.03144876191996911</v>
+      </c>
+      <c r="I48" t="n">
+        <v>89</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>295</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>34.48152849627372</v>
+      </c>
+      <c r="O48" t="n">
+        <v>11</v>
+      </c>
+      <c r="P48" t="n">
+        <v>8.056467587397648</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3.376305621671379</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Tây Ninh</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>8.995798520150132</v>
+      </c>
+      <c r="D49" t="n">
+        <v>50</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.02578215194787695</v>
+      </c>
+      <c r="I49" t="n">
+        <v>148</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3</v>
+      </c>
+      <c r="K49" t="n">
+        <v>283</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>55.67757963071981</v>
+      </c>
+      <c r="O49" t="n">
+        <v>78</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.370872993160446</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>6.251020292130157</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Vĩnh Phúc</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.224155058851409</v>
+      </c>
+      <c r="D50" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.02518417306361409</v>
+      </c>
+      <c r="I50" t="n">
+        <v>121</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>343</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>32.22500250921797</v>
+      </c>
+      <c r="O50" t="n">
+        <v>49</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.866812287425407</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>6.412353487026977</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Yên Bái</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.02189668806603072</v>
+      </c>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.01548031486824602</v>
+      </c>
+      <c r="I51" t="n">
+        <v>184</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>731</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>88.12845473083826</v>
+      </c>
+      <c r="O51" t="n">
+        <v>36</v>
+      </c>
+      <c r="P51" t="n">
+        <v>9.638457206349351</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.601304786953772</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Điện Biên</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.004796341858726668</v>
+      </c>
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.08711360591558484</v>
+      </c>
+      <c r="I52" t="n">
+        <v>112</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>710</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>59.47226379245208</v>
+      </c>
+      <c r="O52" t="n">
+        <v>155</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2.67943370542346</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5.049065726023714</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>9.183466955493572</v>
+      </c>
+      <c r="D53" t="n">
+        <v>50</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.001059416190909185</v>
+      </c>
+      <c r="I53" t="n">
+        <v>132</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>248</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>93.44329771551212</v>
+      </c>
+      <c r="O53" t="n">
+        <v>165</v>
+      </c>
+      <c r="P53" t="n">
+        <v>6.416993633746688</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>7.863058201467171</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Đắk Nông</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2.915976044399982</v>
+      </c>
+      <c r="D54" t="n">
+        <v>50</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.01979019520258895</v>
+      </c>
+      <c r="I54" t="n">
+        <v>108</v>
+      </c>
+      <c r="J54" t="n">
+        <v>14</v>
+      </c>
+      <c r="K54" t="n">
+        <v>966</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>23.33217175524687</v>
+      </c>
+      <c r="O54" t="n">
+        <v>77</v>
+      </c>
+      <c r="P54" t="n">
+        <v>8.354969817102667</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5.646087939739264</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Đắk Lắk</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>8.647790327148481</v>
+      </c>
+      <c r="D55" t="n">
+        <v>50</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.001544457726597635</v>
+      </c>
+      <c r="I55" t="n">
+        <v>72</v>
+      </c>
+      <c r="J55" t="n">
+        <v>7</v>
+      </c>
+      <c r="K55" t="n">
+        <v>116</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>34.28594007471877</v>
+      </c>
+      <c r="O55" t="n">
+        <v>3</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5.468377057607013</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>9.884397871597207</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Đồng Tháp</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>6.857412166499469</v>
+      </c>
+      <c r="D56" t="n">
+        <v>50</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-2,-3,-4</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.08540860287748167</v>
+      </c>
+      <c r="I56" t="n">
+        <v>185</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3</v>
+      </c>
+      <c r="K56" t="n">
+        <v>879</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>20.26741577452184</v>
+      </c>
+      <c r="O56" t="n">
+        <v>117</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5.262056806123411</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>6.927782053783482</v>
       </c>
     </row>
   </sheetData>
